--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T16:26:51+05:45</t>
+    <t>2025-08-07T10:18:47+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T10:18:47+05:45</t>
+    <t>2025-08-08T09:35:18+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Integrated Health Information Management Section (https://hmis.gov.np, it@hmis.gov.np)</t>
   </si>
   <si>
-    <t>RC Poudel (rcpoudel@amakomaya.com(Work))</t>
+    <t>RC Poudel (rcpoudel@amakomaya.com, rmchndrapdl@gmail.com, ph: +977-9851341921)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>0.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>सेवाको किसिमको मान सेट</t>
+    <t>Service Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:35:18+05:45</t>
+    <t>2025-08-10T13:33:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>सेवाको किसिम कोडहरू प्रयोग गर्ने मान्य सूचि।</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -362,29 +359,29 @@
         <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -406,28 +403,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T23:06:39+05:45</t>
+    <t>2025-08-14T11:08:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/ValueSet/service-type</t>
+    <t>https://fhir.hmis.gov.np/ValueSet/service-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/CodeSystem/service-type</t>
+    <t>https://fhir.hmis.gov.np/CodeSystem/service-type</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-15T10:07:00+05:45</t>
+    <t>2025-08-19T07:52:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +116,21 @@
   </si>
   <si>
     <t>https://fhir.hmis.gov.np/CodeSystem/service-type</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>224891009</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -430,4 +446,59 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-type.xlsx
+++ b/output/ValueSet-service-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
